--- a/testImmo.xlsx
+++ b/testImmo.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -383,7 +383,7 @@
         <v>120</v>
       </c>
       <c r="C3">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.45">
@@ -416,7 +416,7 @@
         <v>50</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/testImmo.xlsx
+++ b/testImmo.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -380,7 +380,7 @@
         <v>150000</v>
       </c>
       <c r="B3">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -391,7 +391,7 @@
         <v>140000</v>
       </c>
       <c r="B4">
-        <v>90</v>
+        <v>130</v>
       </c>
       <c r="C4">
         <v>3</v>
@@ -402,7 +402,7 @@
         <v>120000</v>
       </c>
       <c r="B5">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -413,7 +413,7 @@
         <v>100000</v>
       </c>
       <c r="B6">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>3</v>

--- a/testImmo.xlsx
+++ b/testImmo.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/testImmo.xlsx
+++ b/testImmo.xlsx
@@ -345,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -419,6 +419,221 @@
         <v>3</v>
       </c>
     </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7">
+        <v>100000</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <f>B8*1000</f>
+        <v>110000</v>
+      </c>
+      <c r="B8">
+        <v>110</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9">
+        <f t="shared" ref="A9:A24" si="0">B9*1000</f>
+        <v>120000</v>
+      </c>
+      <c r="B9">
+        <v>120</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>130000</v>
+      </c>
+      <c r="B10">
+        <v>130</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>140000</v>
+      </c>
+      <c r="B11">
+        <v>140</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>150000</v>
+      </c>
+      <c r="B12">
+        <v>150</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>160000</v>
+      </c>
+      <c r="B13">
+        <v>160</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>170000</v>
+      </c>
+      <c r="B14">
+        <v>170</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>180000</v>
+      </c>
+      <c r="B15">
+        <v>180</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>190000</v>
+      </c>
+      <c r="B16">
+        <v>190</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>200000</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>210000</v>
+      </c>
+      <c r="B18">
+        <v>210</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>220000</v>
+      </c>
+      <c r="B19">
+        <v>220</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>230000</v>
+      </c>
+      <c r="B20">
+        <v>230</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>240000</v>
+      </c>
+      <c r="B21">
+        <v>240</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>250000</v>
+      </c>
+      <c r="B22">
+        <v>250</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A23">
+        <f t="shared" si="0"/>
+        <v>260000</v>
+      </c>
+      <c r="B23">
+        <v>260</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>270000</v>
+      </c>
+      <c r="B24">
+        <v>270</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
